--- a/PLAN FOR GROUP PROJECT - Immigration.xlsx
+++ b/PLAN FOR GROUP PROJECT - Immigration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Initialization" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t xml:space="preserve">Meeting: </t>
   </si>
@@ -183,28 +183,34 @@
     <t>March 28th</t>
   </si>
   <si>
-    <t>Group Review and Feedback 2</t>
-  </si>
-  <si>
-    <t>This gives 3 days for sub group to incorporate peer review feedback</t>
-  </si>
-  <si>
-    <t>I think it's reasonable to have the analysis and findings almost complete by this time.</t>
-  </si>
-  <si>
     <t>April 30th</t>
   </si>
   <si>
     <t>Final Report Due</t>
   </si>
   <si>
-    <t xml:space="preserve">This provides 20 days to complete "sub group" and then 10 days to peer review another sub group and then 5 days for the final editor to put the whole thing together. </t>
-  </si>
-  <si>
     <t>Climate change effect on Immigration</t>
   </si>
   <si>
     <t>Economic (GDP, GNI, NNI) impact of immigrants</t>
+  </si>
+  <si>
+    <t>Literature Review Done + Part of Analysis done.</t>
+  </si>
+  <si>
+    <t>Peer Review</t>
+  </si>
+  <si>
+    <t>Incorporate Peer review into sub-group paper</t>
+  </si>
+  <si>
+    <t>Put together Paper (for cohesive project)</t>
+  </si>
+  <si>
+    <t>Dr. P review</t>
+  </si>
+  <si>
+    <t>incorporate changes from Dr. P (and by then we should have a cohesive story)</t>
   </si>
 </sst>
 </file>
@@ -584,17 +590,17 @@
   </sheetPr>
   <dimension ref="A3:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -625,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -661,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -675,7 +681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -689,26 +695,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
@@ -719,7 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>2</v>
       </c>
@@ -727,27 +733,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
@@ -755,17 +761,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
@@ -774,24 +780,24 @@
       </c>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>30</v>
       </c>
@@ -799,17 +805,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>33</v>
       </c>
@@ -827,19 +833,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -853,42 +859,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -902,88 +908,104 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="D14" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="D15" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3">
+        <v>43527</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43541</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3">
+        <v>43541</v>
+      </c>
+      <c r="C17" s="3">
+        <v>43544</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3">
+        <v>43544</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43549</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="11">
-        <v>43544</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B19" s="11">
         <v>43549</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C19" s="3">
+        <v>43552</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3">
+        <v>43556</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3">
+        <v>43556</v>
+      </c>
+      <c r="C21" s="3">
+        <v>43570</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="D17" s="7" t="s">
+      <c r="B22" s="3">
+        <v>43570</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43580</v>
+      </c>
+      <c r="D22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="3">
-        <v>43570</v>
-      </c>
-      <c r="C19" s="3">
-        <v>43580</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -992,9 +1014,42 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D20:J23"/>
+    <mergeCell ref="D23:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
